--- a/Data/aearep-772/candidatepackages.xlsx
+++ b/Data/aearep-772/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -40,72 +37,60 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>lambda</t>
   </si>
   <si>
     <t>seq</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
   <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
     <t>equation</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
     <t>dag</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>effects</t>
   </si>
   <si>
     <t>frm</t>
   </si>
   <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>effects</t>
+    <t>hbox</t>
   </si>
   <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>hbox</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>rq</t>
   </si>
   <si>
     <t>tolerance</t>
   </si>
   <si>
-    <t>rq</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -124,24 +109,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-772</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-772/118762</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-772/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>0_Main.do</t>
   </si>
   <si>
@@ -155,9 +128,6 @@
   </si>
   <si>
     <t>4_Appendix.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -201,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -209,13 +179,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -235,7 +205,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -247,7 +217,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -259,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -271,7 +241,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -283,7 +253,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -295,10 +265,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>390</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D8"/>
     </row>
@@ -307,10 +277,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.13586777448654175</v>
       </c>
       <c r="D9"/>
     </row>
@@ -319,10 +289,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>385</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0.12765252590179443</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -331,10 +301,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>417</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0.13826259970664978</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -343,10 +313,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C12">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D12"/>
     </row>
@@ -355,10 +325,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>565</v>
+        <v>712</v>
       </c>
       <c r="C13">
-        <v>0.18733422458171844</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D13"/>
     </row>
@@ -367,10 +337,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>566</v>
+        <v>875</v>
       </c>
       <c r="C14">
-        <v>0.18766577541828156</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D14"/>
     </row>
@@ -379,10 +349,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>745</v>
+        <v>893</v>
       </c>
       <c r="C15">
-        <v>0.24701590836048126</v>
+        <v>0.29520660638809204</v>
       </c>
       <c r="D15"/>
     </row>
@@ -391,10 +361,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="C16">
-        <v>0.31034481525421143</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D16"/>
     </row>
@@ -403,10 +373,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C17">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D17"/>
     </row>
@@ -415,10 +385,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1030</v>
+        <v>1068</v>
       </c>
       <c r="C18">
-        <v>0.34151193499565125</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="D18"/>
     </row>
@@ -427,10 +397,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1077</v>
+        <v>1414</v>
       </c>
       <c r="C19">
-        <v>0.35709547996520996</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D19"/>
     </row>
@@ -439,10 +409,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1124</v>
+        <v>1497</v>
       </c>
       <c r="C20">
-        <v>0.37267905473709106</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D20"/>
     </row>
@@ -451,10 +421,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1133</v>
+        <v>1500</v>
       </c>
       <c r="C21">
-        <v>0.37566313147544861</v>
+        <v>0.49586775898933411</v>
       </c>
       <c r="D21"/>
     </row>
@@ -463,10 +433,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1409</v>
+        <v>1746</v>
       </c>
       <c r="C22">
-        <v>0.46717506647109985</v>
+        <v>0.577190101146698</v>
       </c>
       <c r="D22"/>
     </row>
@@ -475,10 +445,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1423</v>
+        <v>1880</v>
       </c>
       <c r="C23">
-        <v>0.47181698679924011</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D23"/>
     </row>
@@ -487,10 +457,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1660</v>
+        <v>2304</v>
       </c>
       <c r="C24">
-        <v>0.55039787292480469</v>
+        <v>0.76165288686752319</v>
       </c>
       <c r="D24"/>
     </row>
@@ -499,10 +469,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1798</v>
+        <v>2312</v>
       </c>
       <c r="C25">
-        <v>0.5961538553237915</v>
+        <v>0.76429754495620728</v>
       </c>
       <c r="D25"/>
     </row>
@@ -511,10 +481,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1817</v>
+        <v>2436</v>
       </c>
       <c r="C26">
-        <v>0.60245358943939209</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D26"/>
     </row>
@@ -523,72 +493,12 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1842</v>
+        <v>2864</v>
       </c>
       <c r="C27">
-        <v>0.61074268817901611</v>
+        <v>0.9467768669128418</v>
       </c>
       <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1859</v>
-      </c>
-      <c r="C28">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2331</v>
-      </c>
-      <c r="C29">
-        <v>0.77287799119949341</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2401</v>
-      </c>
-      <c r="C30">
-        <v>0.79608750343322754</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2424</v>
-      </c>
-      <c r="C31">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2777</v>
-      </c>
-      <c r="C32">
-        <v>0.92075598239898682</v>
-      </c>
-      <c r="D32"/>
     </row>
   </sheetData>
 </worksheet>
@@ -596,79 +506,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
